--- a/resources/recipients.xlsx
+++ b/resources/recipients.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="31">
   <si>
     <t xml:space="preserve">S.NO</t>
   </si>
@@ -31,8 +31,7 @@
     <t xml:space="preserve">Name</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Email</t>
+    <t xml:space="preserve">Email</t>
   </si>
   <si>
     <t xml:space="preserve">3. PHONE NUMBER </t>
@@ -74,7 +73,23 @@
     <t xml:space="preserve">31-10-2023 20:58:26</t>
   </si>
   <si>
-    <t xml:space="preserve">Olamide Emmanuel Ogundare</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Ogundare </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Olamide Emmanuel</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">ogundareolamideemmanuel@gmail.com</t>
@@ -105,6 +120,15 @@
   </si>
   <si>
     <t xml:space="preserve">To be Well equipped for the ministries of Christ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ogundare Olamide Emmanuel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ogundareoemts@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ogundareoemts2019@futa.edu.ng</t>
   </si>
 </sst>
 </file>
@@ -114,11 +138,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -134,6 +159,18 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -178,13 +215,25 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -204,115 +253,218 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:2"/>
+      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="0" t="s">
+      <c r="I2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="0" t="s">
+      <c r="L2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" s="0" t="s">
+      <c r="O2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1" display="ogundareoemts2019@futa.edu.ng"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
